--- a/biology/Médecine/Chimio-embolisation_intra-artérielle/Chimio-embolisation_intra-artérielle.xlsx
+++ b/biology/Médecine/Chimio-embolisation_intra-artérielle/Chimio-embolisation_intra-artérielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chimio-embolisation_intra-art%C3%A9rielle</t>
+          <t>Chimio-embolisation_intra-artérielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimio-embolisation intra-artérielle est un traitement palliatif du carcinome hépatocellulaire dans lequel le médecin procède à l'administration d'une chimiothérapie directement au sein de la tumeur, couplée avec l'obturation des artères nourricières de cette dernière. Elle peut être proposée au patient avec une augmentation de la survie de quelques mois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chimio-embolisation_intra-art%C3%A9rielle</t>
+          <t>Chimio-embolisation_intra-artérielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chimio-embolisation intra-artérielle des hépatocarcinomes. Comparaison des techniques, lipiodolée classique et par billes chargées.
  Portail de la médecine                     </t>
